--- a/NektarMap.xlsx
+++ b/NektarMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassidy.Northway\Remote Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E2C34-D240-483C-9506-CE284F5BBD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A35E39-01BD-47B3-AF05-E9BFB52C1B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9CFF2691-E43C-4CC8-A4D8-65AD8583F44E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{9CFF2691-E43C-4CC8-A4D8-65AD8583F44E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Nektar ID Number</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>length (cm)</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6,1,2</t>
+  </si>
+  <si>
+    <t>1,2,3,4,1,2</t>
   </si>
 </sst>
 </file>
@@ -162,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +187,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -194,10 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F6637A-1E51-4C1A-8376-38D973718918}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +544,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,6 +574,12 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -564,6 +591,12 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -575,6 +608,12 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -586,6 +625,12 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -608,6 +653,12 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>18.97</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -619,6 +670,13 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <f>0.26+0.06+0.57+7.91+3.57+6.89+11.75</f>
+        <v>31.01</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -630,6 +688,12 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>21.76</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -641,6 +705,12 @@
       <c r="C10" t="s">
         <v>33</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2.97</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -652,6 +722,12 @@
       <c r="C11" t="s">
         <v>34</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>12.56</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -663,6 +739,12 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>22.33</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -696,6 +778,12 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -704,22 +792,34 @@
       <c r="B16">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>21.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>20.5</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>21.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -730,7 +830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -740,8 +840,14 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>24.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -751,8 +857,14 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -762,8 +874,14 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>19.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -773,8 +891,15 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <f>0.81+0.26+0.33+9.45+6.8+11.97</f>
+        <v>29.619999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -784,8 +909,14 @@
       <c r="C23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -795,8 +926,14 @@
       <c r="C24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -806,8 +943,14 @@
       <c r="C25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -817,8 +960,14 @@
       <c r="C26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>22.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -829,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -839,8 +988,14 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -850,8 +1005,14 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -861,8 +1022,10 @@
       <c r="C30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -872,8 +1035,10 @@
       <c r="C31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -883,8 +1048,10 @@
       <c r="C32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -894,8 +1061,10 @@
       <c r="C33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -905,8 +1074,10 @@
       <c r="C34" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -917,7 +1088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -928,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -939,7 +1110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -950,7 +1121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -961,7 +1132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -972,7 +1143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -983,7 +1154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -994,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1005,7 +1176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1016,7 +1187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1027,7 +1198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1038,7 +1209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1049,7 +1220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>

--- a/NektarMap.xlsx
+++ b/NektarMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassidy.Northway\Remote Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A35E39-01BD-47B3-AF05-E9BFB52C1B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F95E9C-9EBA-4D1B-9657-A5AE1E0DCF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{9CFF2691-E43C-4CC8-A4D8-65AD8583F44E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9CFF2691-E43C-4CC8-A4D8-65AD8583F44E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Nektar ID Number</t>
   </si>
@@ -92,18 +92,12 @@
     <t>arteries9</t>
   </si>
   <si>
-    <t xml:space="preserve">arteries9, arteries_lleg22 </t>
-  </si>
-  <si>
     <t>arteries_lleg22</t>
   </si>
   <si>
     <t>arteries_lleg17</t>
   </si>
   <si>
-    <t>arteries_lleg11</t>
-  </si>
-  <si>
     <t>arteries_rleg1</t>
   </si>
   <si>
@@ -113,15 +107,6 @@
     <t>arteries_rleg23</t>
   </si>
   <si>
-    <t>arteries27, arteries_rleg18</t>
-  </si>
-  <si>
-    <t>arteries27,arteries_rleg18</t>
-  </si>
-  <si>
-    <t>arteries5,arteries_larm2</t>
-  </si>
-  <si>
     <t>arteries_larm2</t>
   </si>
   <si>
@@ -152,7 +137,22 @@
     <t>2,3,4,5,6,1,2</t>
   </si>
   <si>
-    <t>1,2,3,4,1,2</t>
+    <t>arteries27</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>15, 16</t>
+  </si>
+  <si>
+    <t>18, 27</t>
+  </si>
+  <si>
+    <t>arteries_lleg6</t>
+  </si>
+  <si>
+    <t>crop</t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,12 +212,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,9 +239,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,7 +279,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -382,7 +385,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,7 +527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F6637A-1E51-4C1A-8376-38D973718918}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +550,7 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,13 +561,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -581,7 +584,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -595,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -612,15 +615,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>3.9</v>
+        <f>3.9+48.5</f>
+        <v>52.4</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -629,21 +633,23 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>44.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>10.8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -660,25 +666,25 @@
         <v>18.97</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>48.5</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4">
         <f>0.26+0.06+0.57+7.91+3.57+6.89+11.75</f>
         <v>31.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -686,16 +692,16 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>21.76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -703,7 +709,7 @@
         <v>7.7</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -712,7 +718,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -720,7 +726,7 @@
         <v>9.1</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -729,7 +735,7 @@
         <v>12.56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -737,38 +743,45 @@
         <v>19.7</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>22.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>20.5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>18.7</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -785,57 +798,61 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B16">
+        <f>16+20.5</f>
+        <v>36.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>21.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B17" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
         <v>21.87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>20.5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>21.87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>18.7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <f>6+12</f>
         <v>18</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -847,7 +864,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -864,7 +881,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -881,7 +898,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -889,17 +906,16 @@
         <v>48.5</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22">
-        <f>0.81+0.26+0.33+9.45+6.8+11.97</f>
-        <v>29.619999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -907,16 +923,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>21.76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -924,7 +940,7 @@
         <v>7.7</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -933,7 +949,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -941,7 +957,7 @@
         <v>9.1</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -950,7 +966,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -958,44 +974,49 @@
         <v>19.7</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>22.55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+        <v>39.4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>12</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>4</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>1.27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1006,13 +1027,13 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>0.94199999999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1022,10 +1043,14 @@
       <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1033,12 +1058,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1048,10 +1077,14 @@
       <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1061,10 +1094,14 @@
       <c r="C33" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1074,10 +1111,14 @@
       <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>10.029999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1087,8 +1128,17 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>21.67</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1098,8 +1148,14 @@
       <c r="C36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1109,8 +1165,17 @@
       <c r="C37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>10.19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1120,8 +1185,14 @@
       <c r="C38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1131,8 +1202,17 @@
       <c r="C39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>8.6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1142,8 +1222,14 @@
       <c r="C40" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1153,8 +1239,17 @@
       <c r="C41" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>15.54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1164,8 +1259,14 @@
       <c r="C42" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1173,10 +1274,16 @@
         <v>6.8</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1184,10 +1291,16 @@
         <v>6.8</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1195,10 +1308,16 @@
         <v>16.600000000000001</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1208,8 +1327,14 @@
       <c r="C46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1217,10 +1342,16 @@
         <v>50.9</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>52.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1228,10 +1359,16 @@
         <v>14.5</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1239,10 +1376,19 @@
         <v>36.9</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>64.06</v>
+      </c>
+      <c r="F49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1250,10 +1396,16 @@
         <v>39.799999999999997</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1261,10 +1413,16 @@
         <v>16.600000000000001</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1272,10 +1430,16 @@
         <v>5.8</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1283,10 +1447,16 @@
         <v>50.9</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>52.88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1294,10 +1464,16 @@
         <v>14.5</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1305,10 +1481,19 @@
         <v>36.9</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="F55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1316,7 +1501,13 @@
         <v>39.799999999999997</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>53.24</v>
       </c>
     </row>
   </sheetData>
